--- a/Automation/Login_Folder/Login_Data.xlsx
+++ b/Automation/Login_Folder/Login_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bssuniversal-my.sharepoint.com/personal/laraib_khalid_bssuniversal_com/Documents/Desktop/Laraib Data/SQA/Automation/SMARTCRM_Data_Driven_Testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bssuniversal-my.sharepoint.com/personal/laraib_khalid_bssuniversal_com/Documents/Desktop/Laraib Data/SQA/Automation/DemoSMARTCRM/Automation/Login_Folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_F25DC773A252ABDACC10480271DD697A5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74492FDC-E820-419A-9ABB-14120916F4DB}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC10480271DD697A5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E8D40FD-7E7A-40C9-AC0F-16CFA4A3C681}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>${username}</t>
   </si>
@@ -42,10 +42,10 @@
     <t>admin123</t>
   </si>
   <si>
-    <t>admin.qasmartcrm@bssuniversal.com</t>
-  </si>
-  <si>
-    <t>Bss@2025</t>
+    <t>qasmart.zee@bssuniversal.com</t>
+  </si>
+  <si>
+    <t>Bss@2025-1</t>
   </si>
 </sst>
 </file>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,31 +405,23 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="B3" s="2">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>123</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Automation/Login_Folder/Login_Data.xlsx
+++ b/Automation/Login_Folder/Login_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bssuniversal-my.sharepoint.com/personal/laraib_khalid_bssuniversal_com/Documents/Desktop/Laraib Data/SQA/Automation/DemoSMARTCRM/Automation/Login_Folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC10480271DD697A5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E8D40FD-7E7A-40C9-AC0F-16CFA4A3C681}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_F25DC773A252ABDACC10480271DD697A5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8420FFBB-A9D2-4F43-A097-F3AED01CB4A8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,7 +376,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
